--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2097.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2097.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.164800132863629</v>
+        <v>3.503243207931519</v>
       </c>
       <c r="B1">
-        <v>2.935517730400053</v>
+        <v>2.62055516242981</v>
       </c>
       <c r="C1">
-        <v>2.610120020948471</v>
+        <v>2.205363750457764</v>
       </c>
       <c r="D1">
-        <v>2.870635926868062</v>
+        <v>2.292547225952148</v>
       </c>
       <c r="E1">
-        <v>3.140445178348503</v>
+        <v>2.619365215301514</v>
       </c>
     </row>
   </sheetData>
